--- a/DDF/Phase2.1/TY_12/InvoiceReplacementWithSp/InvoiceDeliverySummaryDeliveryFinalSummary/Testdata.xlsx
+++ b/DDF/Phase2.1/TY_12/InvoiceReplacementWithSp/InvoiceDeliverySummaryDeliveryFinalSummary/Testdata.xlsx
@@ -30,13 +30,13 @@
     <t xml:space="preserve">Invoice name </t>
   </si>
   <si>
-    <t>Invoice Split-1</t>
-  </si>
-  <si>
     <t>TC_044</t>
   </si>
   <si>
     <t>Bollen_Val</t>
+  </si>
+  <si>
+    <t>Default Invoice-3</t>
   </si>
 </sst>
 </file>
@@ -357,12 +357,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -373,7 +373,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -381,12 +381,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
